--- a/config_1.5/fish_yutu_random_2.xlsx
+++ b/config_1.5/fish_yutu_random_2.xlsx
@@ -415,7 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,10 +1595,10 @@
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H17" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,10 +1619,10 @@
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H18" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,10 +1643,10 @@
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H19" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,10 +1667,10 @@
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H20" s="19">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
   </sheetData>
